--- a/FarmaVojovice/Data/OfferList.xlsx
+++ b/FarmaVojovice/Data/OfferList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjektyGit\FarmaVojoviceWeb\FarmaVojovice\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C6703E-D345-4A59-8412-2CA15607C7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C094BA7-E4FB-48F5-BEE9-7423B54F961A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Jmeno</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>21.1.2022</t>
+  </si>
+  <si>
+    <t>2501 kc</t>
+  </si>
+  <si>
+    <t>21.1.2023</t>
+  </si>
+  <si>
+    <t>Balicek 5 kg</t>
+  </si>
+  <si>
+    <t>Jazyk + Jitrnice</t>
   </si>
 </sst>
 </file>
@@ -395,17 +407,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -462,6 +474,20 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/FarmaVojovice/Data/OfferList.xlsx
+++ b/FarmaVojovice/Data/OfferList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjektyGit\FarmaVojoviceWeb\FarmaVojovice\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C094BA7-E4FB-48F5-BEE9-7423B54F961A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5BF7B8-EB6F-4BD3-B6E2-0F0765CDDA54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Jmeno</t>
   </si>
@@ -33,55 +33,145 @@
     <t>Cena</t>
   </si>
   <si>
-    <t>Datum zabiti</t>
-  </si>
-  <si>
     <t>Popis</t>
   </si>
   <si>
-    <t>Jazyk</t>
-  </si>
-  <si>
-    <t>300 kc</t>
-  </si>
-  <si>
-    <t>Moc dobre</t>
-  </si>
-  <si>
-    <t>Hlava</t>
-  </si>
-  <si>
-    <t>1000 kc</t>
-  </si>
-  <si>
-    <t>Balicek 10 kg</t>
-  </si>
-  <si>
-    <t>2500 kc</t>
-  </si>
-  <si>
-    <t>Jazyk + Hlava</t>
-  </si>
-  <si>
-    <t>21.1.2020</t>
-  </si>
-  <si>
-    <t>21.1.2021</t>
-  </si>
-  <si>
-    <t>21.1.2022</t>
-  </si>
-  <si>
-    <t>2501 kc</t>
-  </si>
-  <si>
-    <t>21.1.2023</t>
-  </si>
-  <si>
-    <t>Balicek 5 kg</t>
-  </si>
-  <si>
-    <t>Jazyk + Jitrnice</t>
+    <t>Hovězí zadní</t>
+  </si>
+  <si>
+    <t>Hovězí na polévku</t>
+  </si>
+  <si>
+    <t>Kostky na guláš</t>
+  </si>
+  <si>
+    <t>Hovězí mleté</t>
+  </si>
+  <si>
+    <t>Hovězí přední</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>275 Kč</t>
+  </si>
+  <si>
+    <t>350 Kč</t>
+  </si>
+  <si>
+    <t>150 Kč</t>
+  </si>
+  <si>
+    <t>240 Kč</t>
+  </si>
+  <si>
+    <t>200 Kč</t>
+  </si>
+  <si>
+    <t>180 Kč</t>
+  </si>
+  <si>
+    <t>220 Kč</t>
+  </si>
+  <si>
+    <t>Vysoký roštěnec</t>
+  </si>
+  <si>
+    <t>Nízký roštěnec</t>
+  </si>
+  <si>
+    <t>Falešná svíčková</t>
+  </si>
+  <si>
+    <t>Svíčková</t>
+  </si>
+  <si>
+    <t>Líčka</t>
+  </si>
+  <si>
+    <t>Květová špička</t>
+  </si>
+  <si>
+    <t>Pupek</t>
+  </si>
+  <si>
+    <t>Kližka</t>
+  </si>
+  <si>
+    <t>Krk</t>
+  </si>
+  <si>
+    <t>Hrudí</t>
+  </si>
+  <si>
+    <t>Žebra</t>
+  </si>
+  <si>
+    <t>Šál</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ořech </t>
+  </si>
+  <si>
+    <t>Játra</t>
+  </si>
+  <si>
+    <t>Ledviny</t>
+  </si>
+  <si>
+    <t>Srdce</t>
+  </si>
+  <si>
+    <t>Slezina</t>
+  </si>
+  <si>
+    <t>Velké kosti</t>
+  </si>
+  <si>
+    <t>Ořez pro psy</t>
+  </si>
+  <si>
+    <t>Dršťky</t>
+  </si>
+  <si>
+    <t>380 Kč</t>
+  </si>
+  <si>
+    <t>320 Kč</t>
+  </si>
+  <si>
+    <t>750 Kč</t>
+  </si>
+  <si>
+    <t>190 Kč</t>
+  </si>
+  <si>
+    <t>170 Kč</t>
+  </si>
+  <si>
+    <t>300 Kč</t>
+  </si>
+  <si>
+    <t>80 Kč</t>
+  </si>
+  <si>
+    <t>60 Kč</t>
+  </si>
+  <si>
+    <t>100 Kč</t>
+  </si>
+  <si>
+    <t>1 Kč</t>
+  </si>
+  <si>
+    <t>25 Kč</t>
+  </si>
+  <si>
+    <t>Balíček 10 kg</t>
+  </si>
+  <si>
+    <t>2000 Kč</t>
   </si>
 </sst>
 </file>
@@ -407,20 +497,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,68 +520,293 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FarmaVojovice/Data/OfferList.xlsx
+++ b/FarmaVojovice/Data/OfferList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjektyGit\FarmaVojoviceWeb\FarmaVojovice\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5BF7B8-EB6F-4BD3-B6E2-0F0765CDDA54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5EF4AC-371C-47A3-B9FB-4C2A5B030D28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Jmeno</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>2000 Kč</t>
+  </si>
+  <si>
+    <t>Jazyk</t>
+  </si>
+  <si>
+    <t>200 Kč/kus</t>
   </si>
 </sst>
 </file>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,21 +705,19 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -721,7 +725,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
@@ -732,10 +736,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -743,7 +747,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>42</v>
@@ -754,10 +758,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -765,10 +769,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -776,10 +780,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -787,10 +791,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -798,9 +802,20 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
     </row>
